--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\WY\trans\AVL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2CD573A-37E5-403E-82B4-0658FBD2F4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3788EEE5-280E-406E-ACAA-21D6B6306A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="335" yWindow="335" windowWidth="12185" windowHeight="7455" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="616">
   <si>
     <t>Car Avg Lifetime, years (Page 22, Table 7)</t>
   </si>
@@ -1919,9 +1919,6 @@
   </si>
   <si>
     <t>BNEF, LDV fleet 2021 (M)</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
   </si>
 </sst>
 </file>
@@ -2880,7 +2877,7 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3117,7 +3114,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="7" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3139,15 +3135,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3158,6 +3145,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3556,7 +3552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
@@ -3567,18 +3563,12 @@
     <col min="2" max="2" width="132.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C1" s="98">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -3586,57 +3576,57 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B4" s="75" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B8" s="9">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B13" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B15" s="9">
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B16" t="s">
         <v>56</v>
       </c>
@@ -3810,7 +3800,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3848,12 +3838,12 @@
         <v>51</v>
       </c>
       <c r="B3" s="74">
-        <f>'Freight and Buses'!B17</f>
-        <v>12.166666666666668</v>
+        <f>ROUND('Freight and Buses'!B17,0)</f>
+        <v>12</v>
       </c>
       <c r="C3" s="74">
-        <f>'Freight and Buses'!B13</f>
-        <v>18.997392510890304</v>
+        <f>ROUND('Freight and Buses'!B13,0)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">
@@ -15790,40 +15780,40 @@
       <c r="AF80" s="82"/>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.75">
-      <c r="A81" s="99" t="s">
+      <c r="A81" s="98" t="s">
         <v>590</v>
       </c>
-      <c r="B81" s="100"/>
-      <c r="C81" s="100"/>
-      <c r="D81" s="100"/>
-      <c r="E81" s="100"/>
-      <c r="F81" s="100"/>
-      <c r="G81" s="100"/>
-      <c r="H81" s="100"/>
-      <c r="I81" s="100"/>
-      <c r="J81" s="100"/>
-      <c r="K81" s="100"/>
-      <c r="L81" s="100"/>
-      <c r="M81" s="100"/>
-      <c r="N81" s="100"/>
-      <c r="O81" s="100"/>
-      <c r="P81" s="100"/>
-      <c r="Q81" s="100"/>
-      <c r="R81" s="100"/>
-      <c r="S81" s="100"/>
-      <c r="T81" s="100"/>
-      <c r="U81" s="100"/>
-      <c r="V81" s="100"/>
-      <c r="W81" s="100"/>
-      <c r="X81" s="100"/>
-      <c r="Y81" s="100"/>
-      <c r="Z81" s="100"/>
-      <c r="AA81" s="100"/>
-      <c r="AB81" s="100"/>
-      <c r="AC81" s="100"/>
-      <c r="AD81" s="100"/>
-      <c r="AE81" s="100"/>
-      <c r="AF81" s="100"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="99"/>
+      <c r="F81" s="99"/>
+      <c r="G81" s="99"/>
+      <c r="H81" s="99"/>
+      <c r="I81" s="99"/>
+      <c r="J81" s="99"/>
+      <c r="K81" s="99"/>
+      <c r="L81" s="99"/>
+      <c r="M81" s="99"/>
+      <c r="N81" s="99"/>
+      <c r="O81" s="99"/>
+      <c r="P81" s="99"/>
+      <c r="Q81" s="99"/>
+      <c r="R81" s="99"/>
+      <c r="S81" s="99"/>
+      <c r="T81" s="99"/>
+      <c r="U81" s="99"/>
+      <c r="V81" s="99"/>
+      <c r="W81" s="99"/>
+      <c r="X81" s="99"/>
+      <c r="Y81" s="99"/>
+      <c r="Z81" s="99"/>
+      <c r="AA81" s="99"/>
+      <c r="AB81" s="99"/>
+      <c r="AC81" s="99"/>
+      <c r="AD81" s="99"/>
+      <c r="AE81" s="99"/>
+      <c r="AF81" s="99"/>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A82" s="82" t="s">
@@ -21669,40 +21659,40 @@
       <c r="AF78" s="82"/>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.75">
-      <c r="A79" s="99" t="s">
+      <c r="A79" s="98" t="s">
         <v>590</v>
       </c>
-      <c r="B79" s="100"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="100"/>
-      <c r="E79" s="100"/>
-      <c r="F79" s="100"/>
-      <c r="G79" s="100"/>
-      <c r="H79" s="100"/>
-      <c r="I79" s="100"/>
-      <c r="J79" s="100"/>
-      <c r="K79" s="100"/>
-      <c r="L79" s="100"/>
-      <c r="M79" s="100"/>
-      <c r="N79" s="100"/>
-      <c r="O79" s="100"/>
-      <c r="P79" s="100"/>
-      <c r="Q79" s="100"/>
-      <c r="R79" s="100"/>
-      <c r="S79" s="100"/>
-      <c r="T79" s="100"/>
-      <c r="U79" s="100"/>
-      <c r="V79" s="100"/>
-      <c r="W79" s="100"/>
-      <c r="X79" s="100"/>
-      <c r="Y79" s="100"/>
-      <c r="Z79" s="100"/>
-      <c r="AA79" s="100"/>
-      <c r="AB79" s="100"/>
-      <c r="AC79" s="100"/>
-      <c r="AD79" s="100"/>
-      <c r="AE79" s="100"/>
-      <c r="AF79" s="100"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="99"/>
+      <c r="K79" s="99"/>
+      <c r="L79" s="99"/>
+      <c r="M79" s="99"/>
+      <c r="N79" s="99"/>
+      <c r="O79" s="99"/>
+      <c r="P79" s="99"/>
+      <c r="Q79" s="99"/>
+      <c r="R79" s="99"/>
+      <c r="S79" s="99"/>
+      <c r="T79" s="99"/>
+      <c r="U79" s="99"/>
+      <c r="V79" s="99"/>
+      <c r="W79" s="99"/>
+      <c r="X79" s="99"/>
+      <c r="Y79" s="99"/>
+      <c r="Z79" s="99"/>
+      <c r="AA79" s="99"/>
+      <c r="AB79" s="99"/>
+      <c r="AC79" s="99"/>
+      <c r="AD79" s="99"/>
+      <c r="AE79" s="99"/>
+      <c r="AF79" s="99"/>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A80" s="82" t="s">
@@ -22739,70 +22729,70 @@
       <c r="AF109" s="82"/>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.75">
-      <c r="A117" s="101"/>
-      <c r="B117" s="101"/>
-      <c r="C117" s="101"/>
-      <c r="D117" s="101"/>
-      <c r="E117" s="101"/>
-      <c r="F117" s="101"/>
-      <c r="G117" s="101"/>
-      <c r="H117" s="101"/>
-      <c r="I117" s="101"/>
-      <c r="J117" s="101"/>
-      <c r="K117" s="101"/>
-      <c r="L117" s="101"/>
-      <c r="M117" s="101"/>
-      <c r="N117" s="101"/>
-      <c r="O117" s="101"/>
-      <c r="P117" s="101"/>
-      <c r="Q117" s="101"/>
-      <c r="R117" s="101"/>
-      <c r="S117" s="101"/>
-      <c r="T117" s="101"/>
-      <c r="U117" s="101"/>
-      <c r="V117" s="101"/>
-      <c r="W117" s="101"/>
-      <c r="X117" s="101"/>
-      <c r="Y117" s="101"/>
-      <c r="Z117" s="101"/>
-      <c r="AA117" s="101"/>
-      <c r="AB117" s="101"/>
-      <c r="AC117" s="101"/>
-      <c r="AD117" s="101"/>
-      <c r="AE117" s="101"/>
+      <c r="A117" s="100"/>
+      <c r="B117" s="100"/>
+      <c r="C117" s="100"/>
+      <c r="D117" s="100"/>
+      <c r="E117" s="100"/>
+      <c r="F117" s="100"/>
+      <c r="G117" s="100"/>
+      <c r="H117" s="100"/>
+      <c r="I117" s="100"/>
+      <c r="J117" s="100"/>
+      <c r="K117" s="100"/>
+      <c r="L117" s="100"/>
+      <c r="M117" s="100"/>
+      <c r="N117" s="100"/>
+      <c r="O117" s="100"/>
+      <c r="P117" s="100"/>
+      <c r="Q117" s="100"/>
+      <c r="R117" s="100"/>
+      <c r="S117" s="100"/>
+      <c r="T117" s="100"/>
+      <c r="U117" s="100"/>
+      <c r="V117" s="100"/>
+      <c r="W117" s="100"/>
+      <c r="X117" s="100"/>
+      <c r="Y117" s="100"/>
+      <c r="Z117" s="100"/>
+      <c r="AA117" s="100"/>
+      <c r="AB117" s="100"/>
+      <c r="AC117" s="100"/>
+      <c r="AD117" s="100"/>
+      <c r="AE117" s="100"/>
     </row>
     <row r="259" spans="1:31" x14ac:dyDescent="0.75">
-      <c r="A259" s="101"/>
-      <c r="B259" s="101"/>
-      <c r="C259" s="101"/>
-      <c r="D259" s="101"/>
-      <c r="E259" s="101"/>
-      <c r="F259" s="101"/>
-      <c r="G259" s="101"/>
-      <c r="H259" s="101"/>
-      <c r="I259" s="101"/>
-      <c r="J259" s="101"/>
-      <c r="K259" s="101"/>
-      <c r="L259" s="101"/>
-      <c r="M259" s="101"/>
-      <c r="N259" s="101"/>
-      <c r="O259" s="101"/>
-      <c r="P259" s="101"/>
-      <c r="Q259" s="101"/>
-      <c r="R259" s="101"/>
-      <c r="S259" s="101"/>
-      <c r="T259" s="101"/>
-      <c r="U259" s="101"/>
-      <c r="V259" s="101"/>
-      <c r="W259" s="101"/>
-      <c r="X259" s="101"/>
-      <c r="Y259" s="101"/>
-      <c r="Z259" s="101"/>
-      <c r="AA259" s="101"/>
-      <c r="AB259" s="101"/>
-      <c r="AC259" s="101"/>
-      <c r="AD259" s="101"/>
-      <c r="AE259" s="101"/>
+      <c r="A259" s="100"/>
+      <c r="B259" s="100"/>
+      <c r="C259" s="100"/>
+      <c r="D259" s="100"/>
+      <c r="E259" s="100"/>
+      <c r="F259" s="100"/>
+      <c r="G259" s="100"/>
+      <c r="H259" s="100"/>
+      <c r="I259" s="100"/>
+      <c r="J259" s="100"/>
+      <c r="K259" s="100"/>
+      <c r="L259" s="100"/>
+      <c r="M259" s="100"/>
+      <c r="N259" s="100"/>
+      <c r="O259" s="100"/>
+      <c r="P259" s="100"/>
+      <c r="Q259" s="100"/>
+      <c r="R259" s="100"/>
+      <c r="S259" s="100"/>
+      <c r="T259" s="100"/>
+      <c r="U259" s="100"/>
+      <c r="V259" s="100"/>
+      <c r="W259" s="100"/>
+      <c r="X259" s="100"/>
+      <c r="Y259" s="100"/>
+      <c r="Z259" s="100"/>
+      <c r="AA259" s="100"/>
+      <c r="AB259" s="100"/>
+      <c r="AC259" s="100"/>
+      <c r="AD259" s="100"/>
+      <c r="AE259" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32301,97 +32291,97 @@
       <c r="A117" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="B117" s="102" t="s">
+      <c r="B117" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="103">
+      <c r="C117" s="102">
         <v>17.406853000000002</v>
       </c>
-      <c r="D117" s="103">
+      <c r="D117" s="102">
         <v>17.424419</v>
       </c>
-      <c r="E117" s="103">
+      <c r="E117" s="102">
         <v>17.492840000000001</v>
       </c>
-      <c r="F117" s="103">
+      <c r="F117" s="102">
         <v>17.594168</v>
       </c>
-      <c r="G117" s="103">
+      <c r="G117" s="102">
         <v>17.723022</v>
       </c>
-      <c r="H117" s="103">
+      <c r="H117" s="102">
         <v>17.870365</v>
       </c>
-      <c r="I117" s="103">
+      <c r="I117" s="102">
         <v>18.006972999999999</v>
       </c>
-      <c r="J117" s="103">
+      <c r="J117" s="102">
         <v>18.150782</v>
       </c>
-      <c r="K117" s="103">
+      <c r="K117" s="102">
         <v>18.295826000000002</v>
       </c>
-      <c r="L117" s="103">
+      <c r="L117" s="102">
         <v>18.440176000000001</v>
       </c>
-      <c r="M117" s="103">
+      <c r="M117" s="102">
         <v>18.580342999999999</v>
       </c>
-      <c r="N117" s="103">
+      <c r="N117" s="102">
         <v>18.711387999999999</v>
       </c>
-      <c r="O117" s="103">
+      <c r="O117" s="102">
         <v>18.795469000000001</v>
       </c>
-      <c r="P117" s="103">
+      <c r="P117" s="102">
         <v>18.886208</v>
       </c>
-      <c r="Q117" s="103">
+      <c r="Q117" s="102">
         <v>18.994534999999999</v>
       </c>
-      <c r="R117" s="103">
+      <c r="R117" s="102">
         <v>19.086106999999998</v>
       </c>
-      <c r="S117" s="103">
+      <c r="S117" s="102">
         <v>19.144750999999999</v>
       </c>
-      <c r="T117" s="103">
+      <c r="T117" s="102">
         <v>19.193377999999999</v>
       </c>
-      <c r="U117" s="103">
+      <c r="U117" s="102">
         <v>19.256512000000001</v>
       </c>
-      <c r="V117" s="103">
+      <c r="V117" s="102">
         <v>19.306592999999999</v>
       </c>
-      <c r="W117" s="103">
+      <c r="W117" s="102">
         <v>19.347332000000002</v>
       </c>
-      <c r="X117" s="103">
+      <c r="X117" s="102">
         <v>19.379252999999999</v>
       </c>
-      <c r="Y117" s="103">
+      <c r="Y117" s="102">
         <v>19.403368</v>
       </c>
-      <c r="Z117" s="103">
+      <c r="Z117" s="102">
         <v>19.420500000000001</v>
       </c>
-      <c r="AA117" s="103">
+      <c r="AA117" s="102">
         <v>19.432022</v>
       </c>
-      <c r="AB117" s="103">
+      <c r="AB117" s="102">
         <v>19.441696</v>
       </c>
-      <c r="AC117" s="103">
+      <c r="AC117" s="102">
         <v>19.448132999999999</v>
       </c>
-      <c r="AD117" s="103">
+      <c r="AD117" s="102">
         <v>19.409203000000002</v>
       </c>
-      <c r="AE117" s="103">
+      <c r="AE117" s="102">
         <v>19.409485</v>
       </c>
-      <c r="AF117" s="104">
+      <c r="AF117" s="103">
         <v>3.8969999999999999E-3</v>
       </c>
       <c r="AG117" s="82"/>
@@ -44765,39 +44755,39 @@
       <c r="AG258" s="82"/>
     </row>
     <row r="259" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B259" s="105" t="s">
+      <c r="B259" s="104" t="s">
         <v>511</v>
       </c>
-      <c r="C259" s="106"/>
-      <c r="D259" s="106"/>
-      <c r="E259" s="106"/>
-      <c r="F259" s="106"/>
-      <c r="G259" s="106"/>
-      <c r="H259" s="106"/>
-      <c r="I259" s="106"/>
-      <c r="J259" s="106"/>
-      <c r="K259" s="106"/>
-      <c r="L259" s="106"/>
-      <c r="M259" s="106"/>
-      <c r="N259" s="106"/>
-      <c r="O259" s="106"/>
-      <c r="P259" s="106"/>
-      <c r="Q259" s="106"/>
-      <c r="R259" s="106"/>
-      <c r="S259" s="106"/>
-      <c r="T259" s="106"/>
-      <c r="U259" s="106"/>
-      <c r="V259" s="106"/>
-      <c r="W259" s="106"/>
-      <c r="X259" s="106"/>
-      <c r="Y259" s="106"/>
-      <c r="Z259" s="106"/>
-      <c r="AA259" s="106"/>
-      <c r="AB259" s="106"/>
-      <c r="AC259" s="106"/>
-      <c r="AD259" s="106"/>
-      <c r="AE259" s="106"/>
-      <c r="AF259" s="106"/>
+      <c r="C259" s="105"/>
+      <c r="D259" s="105"/>
+      <c r="E259" s="105"/>
+      <c r="F259" s="105"/>
+      <c r="G259" s="105"/>
+      <c r="H259" s="105"/>
+      <c r="I259" s="105"/>
+      <c r="J259" s="105"/>
+      <c r="K259" s="105"/>
+      <c r="L259" s="105"/>
+      <c r="M259" s="105"/>
+      <c r="N259" s="105"/>
+      <c r="O259" s="105"/>
+      <c r="P259" s="105"/>
+      <c r="Q259" s="105"/>
+      <c r="R259" s="105"/>
+      <c r="S259" s="105"/>
+      <c r="T259" s="105"/>
+      <c r="U259" s="105"/>
+      <c r="V259" s="105"/>
+      <c r="W259" s="105"/>
+      <c r="X259" s="105"/>
+      <c r="Y259" s="105"/>
+      <c r="Z259" s="105"/>
+      <c r="AA259" s="105"/>
+      <c r="AB259" s="105"/>
+      <c r="AC259" s="105"/>
+      <c r="AD259" s="105"/>
+      <c r="AE259" s="105"/>
+      <c r="AF259" s="105"/>
       <c r="AG259" s="82"/>
     </row>
     <row r="260" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.75">
@@ -46030,40 +46020,40 @@
       <c r="AG274" s="82"/>
     </row>
     <row r="275" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B275" s="99" t="s">
+      <c r="B275" s="98" t="s">
         <v>537</v>
       </c>
-      <c r="C275" s="100"/>
-      <c r="D275" s="100"/>
-      <c r="E275" s="100"/>
-      <c r="F275" s="100"/>
-      <c r="G275" s="100"/>
-      <c r="H275" s="100"/>
-      <c r="I275" s="100"/>
-      <c r="J275" s="100"/>
-      <c r="K275" s="100"/>
-      <c r="L275" s="100"/>
-      <c r="M275" s="100"/>
-      <c r="N275" s="100"/>
-      <c r="O275" s="100"/>
-      <c r="P275" s="100"/>
-      <c r="Q275" s="100"/>
-      <c r="R275" s="100"/>
-      <c r="S275" s="100"/>
-      <c r="T275" s="100"/>
-      <c r="U275" s="100"/>
-      <c r="V275" s="100"/>
-      <c r="W275" s="100"/>
-      <c r="X275" s="100"/>
-      <c r="Y275" s="100"/>
-      <c r="Z275" s="100"/>
-      <c r="AA275" s="100"/>
-      <c r="AB275" s="100"/>
-      <c r="AC275" s="100"/>
-      <c r="AD275" s="100"/>
-      <c r="AE275" s="100"/>
-      <c r="AF275" s="100"/>
-      <c r="AG275" s="100"/>
+      <c r="C275" s="99"/>
+      <c r="D275" s="99"/>
+      <c r="E275" s="99"/>
+      <c r="F275" s="99"/>
+      <c r="G275" s="99"/>
+      <c r="H275" s="99"/>
+      <c r="I275" s="99"/>
+      <c r="J275" s="99"/>
+      <c r="K275" s="99"/>
+      <c r="L275" s="99"/>
+      <c r="M275" s="99"/>
+      <c r="N275" s="99"/>
+      <c r="O275" s="99"/>
+      <c r="P275" s="99"/>
+      <c r="Q275" s="99"/>
+      <c r="R275" s="99"/>
+      <c r="S275" s="99"/>
+      <c r="T275" s="99"/>
+      <c r="U275" s="99"/>
+      <c r="V275" s="99"/>
+      <c r="W275" s="99"/>
+      <c r="X275" s="99"/>
+      <c r="Y275" s="99"/>
+      <c r="Z275" s="99"/>
+      <c r="AA275" s="99"/>
+      <c r="AB275" s="99"/>
+      <c r="AC275" s="99"/>
+      <c r="AD275" s="99"/>
+      <c r="AE275" s="99"/>
+      <c r="AF275" s="99"/>
+      <c r="AG275" s="99"/>
       <c r="AH275" s="97"/>
     </row>
     <row r="276" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.75">
@@ -48093,37 +48083,37 @@
     <row r="337" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="338" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="339" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B339" s="101"/>
-      <c r="C339" s="101"/>
-      <c r="D339" s="101"/>
-      <c r="E339" s="101"/>
-      <c r="F339" s="101"/>
-      <c r="G339" s="101"/>
-      <c r="H339" s="101"/>
-      <c r="I339" s="101"/>
-      <c r="J339" s="101"/>
-      <c r="K339" s="101"/>
-      <c r="L339" s="101"/>
-      <c r="M339" s="101"/>
-      <c r="N339" s="101"/>
-      <c r="O339" s="101"/>
-      <c r="P339" s="101"/>
-      <c r="Q339" s="101"/>
-      <c r="R339" s="101"/>
-      <c r="S339" s="101"/>
-      <c r="T339" s="101"/>
-      <c r="U339" s="101"/>
-      <c r="V339" s="101"/>
-      <c r="W339" s="101"/>
-      <c r="X339" s="101"/>
-      <c r="Y339" s="101"/>
-      <c r="Z339" s="101"/>
-      <c r="AA339" s="101"/>
-      <c r="AB339" s="101"/>
-      <c r="AC339" s="101"/>
-      <c r="AD339" s="101"/>
-      <c r="AE339" s="101"/>
-      <c r="AF339" s="101"/>
+      <c r="B339" s="100"/>
+      <c r="C339" s="100"/>
+      <c r="D339" s="100"/>
+      <c r="E339" s="100"/>
+      <c r="F339" s="100"/>
+      <c r="G339" s="100"/>
+      <c r="H339" s="100"/>
+      <c r="I339" s="100"/>
+      <c r="J339" s="100"/>
+      <c r="K339" s="100"/>
+      <c r="L339" s="100"/>
+      <c r="M339" s="100"/>
+      <c r="N339" s="100"/>
+      <c r="O339" s="100"/>
+      <c r="P339" s="100"/>
+      <c r="Q339" s="100"/>
+      <c r="R339" s="100"/>
+      <c r="S339" s="100"/>
+      <c r="T339" s="100"/>
+      <c r="U339" s="100"/>
+      <c r="V339" s="100"/>
+      <c r="W339" s="100"/>
+      <c r="X339" s="100"/>
+      <c r="Y339" s="100"/>
+      <c r="Z339" s="100"/>
+      <c r="AA339" s="100"/>
+      <c r="AB339" s="100"/>
+      <c r="AC339" s="100"/>
+      <c r="AD339" s="100"/>
+      <c r="AE339" s="100"/>
+      <c r="AF339" s="100"/>
     </row>
     <row r="340" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="341" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -48238,37 +48228,37 @@
     <row r="450" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="451" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="452" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B452" s="101"/>
-      <c r="C452" s="101"/>
-      <c r="D452" s="101"/>
-      <c r="E452" s="101"/>
-      <c r="F452" s="101"/>
-      <c r="G452" s="101"/>
-      <c r="H452" s="101"/>
-      <c r="I452" s="101"/>
-      <c r="J452" s="101"/>
-      <c r="K452" s="101"/>
-      <c r="L452" s="101"/>
-      <c r="M452" s="101"/>
-      <c r="N452" s="101"/>
-      <c r="O452" s="101"/>
-      <c r="P452" s="101"/>
-      <c r="Q452" s="101"/>
-      <c r="R452" s="101"/>
-      <c r="S452" s="101"/>
-      <c r="T452" s="101"/>
-      <c r="U452" s="101"/>
-      <c r="V452" s="101"/>
-      <c r="W452" s="101"/>
-      <c r="X452" s="101"/>
-      <c r="Y452" s="101"/>
-      <c r="Z452" s="101"/>
-      <c r="AA452" s="101"/>
-      <c r="AB452" s="101"/>
-      <c r="AC452" s="101"/>
-      <c r="AD452" s="101"/>
-      <c r="AE452" s="101"/>
-      <c r="AF452" s="101"/>
+      <c r="B452" s="100"/>
+      <c r="C452" s="100"/>
+      <c r="D452" s="100"/>
+      <c r="E452" s="100"/>
+      <c r="F452" s="100"/>
+      <c r="G452" s="100"/>
+      <c r="H452" s="100"/>
+      <c r="I452" s="100"/>
+      <c r="J452" s="100"/>
+      <c r="K452" s="100"/>
+      <c r="L452" s="100"/>
+      <c r="M452" s="100"/>
+      <c r="N452" s="100"/>
+      <c r="O452" s="100"/>
+      <c r="P452" s="100"/>
+      <c r="Q452" s="100"/>
+      <c r="R452" s="100"/>
+      <c r="S452" s="100"/>
+      <c r="T452" s="100"/>
+      <c r="U452" s="100"/>
+      <c r="V452" s="100"/>
+      <c r="W452" s="100"/>
+      <c r="X452" s="100"/>
+      <c r="Y452" s="100"/>
+      <c r="Z452" s="100"/>
+      <c r="AA452" s="100"/>
+      <c r="AB452" s="100"/>
+      <c r="AC452" s="100"/>
+      <c r="AD452" s="100"/>
+      <c r="AE452" s="100"/>
+      <c r="AF452" s="100"/>
     </row>
     <row r="453" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="454" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -48383,37 +48373,37 @@
     <row r="563" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="564" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="565" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B565" s="101"/>
-      <c r="C565" s="101"/>
-      <c r="D565" s="101"/>
-      <c r="E565" s="101"/>
-      <c r="F565" s="101"/>
-      <c r="G565" s="101"/>
-      <c r="H565" s="101"/>
-      <c r="I565" s="101"/>
-      <c r="J565" s="101"/>
-      <c r="K565" s="101"/>
-      <c r="L565" s="101"/>
-      <c r="M565" s="101"/>
-      <c r="N565" s="101"/>
-      <c r="O565" s="101"/>
-      <c r="P565" s="101"/>
-      <c r="Q565" s="101"/>
-      <c r="R565" s="101"/>
-      <c r="S565" s="101"/>
-      <c r="T565" s="101"/>
-      <c r="U565" s="101"/>
-      <c r="V565" s="101"/>
-      <c r="W565" s="101"/>
-      <c r="X565" s="101"/>
-      <c r="Y565" s="101"/>
-      <c r="Z565" s="101"/>
-      <c r="AA565" s="101"/>
-      <c r="AB565" s="101"/>
-      <c r="AC565" s="101"/>
-      <c r="AD565" s="101"/>
-      <c r="AE565" s="101"/>
-      <c r="AF565" s="101"/>
+      <c r="B565" s="100"/>
+      <c r="C565" s="100"/>
+      <c r="D565" s="100"/>
+      <c r="E565" s="100"/>
+      <c r="F565" s="100"/>
+      <c r="G565" s="100"/>
+      <c r="H565" s="100"/>
+      <c r="I565" s="100"/>
+      <c r="J565" s="100"/>
+      <c r="K565" s="100"/>
+      <c r="L565" s="100"/>
+      <c r="M565" s="100"/>
+      <c r="N565" s="100"/>
+      <c r="O565" s="100"/>
+      <c r="P565" s="100"/>
+      <c r="Q565" s="100"/>
+      <c r="R565" s="100"/>
+      <c r="S565" s="100"/>
+      <c r="T565" s="100"/>
+      <c r="U565" s="100"/>
+      <c r="V565" s="100"/>
+      <c r="W565" s="100"/>
+      <c r="X565" s="100"/>
+      <c r="Y565" s="100"/>
+      <c r="Z565" s="100"/>
+      <c r="AA565" s="100"/>
+      <c r="AB565" s="100"/>
+      <c r="AC565" s="100"/>
+      <c r="AD565" s="100"/>
+      <c r="AE565" s="100"/>
+      <c r="AF565" s="100"/>
     </row>
     <row r="566" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="567" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -48513,37 +48503,37 @@
     <row r="661" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="662" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="663" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B663" s="101"/>
-      <c r="C663" s="101"/>
-      <c r="D663" s="101"/>
-      <c r="E663" s="101"/>
-      <c r="F663" s="101"/>
-      <c r="G663" s="101"/>
-      <c r="H663" s="101"/>
-      <c r="I663" s="101"/>
-      <c r="J663" s="101"/>
-      <c r="K663" s="101"/>
-      <c r="L663" s="101"/>
-      <c r="M663" s="101"/>
-      <c r="N663" s="101"/>
-      <c r="O663" s="101"/>
-      <c r="P663" s="101"/>
-      <c r="Q663" s="101"/>
-      <c r="R663" s="101"/>
-      <c r="S663" s="101"/>
-      <c r="T663" s="101"/>
-      <c r="U663" s="101"/>
-      <c r="V663" s="101"/>
-      <c r="W663" s="101"/>
-      <c r="X663" s="101"/>
-      <c r="Y663" s="101"/>
-      <c r="Z663" s="101"/>
-      <c r="AA663" s="101"/>
-      <c r="AB663" s="101"/>
-      <c r="AC663" s="101"/>
-      <c r="AD663" s="101"/>
-      <c r="AE663" s="101"/>
-      <c r="AF663" s="101"/>
+      <c r="B663" s="100"/>
+      <c r="C663" s="100"/>
+      <c r="D663" s="100"/>
+      <c r="E663" s="100"/>
+      <c r="F663" s="100"/>
+      <c r="G663" s="100"/>
+      <c r="H663" s="100"/>
+      <c r="I663" s="100"/>
+      <c r="J663" s="100"/>
+      <c r="K663" s="100"/>
+      <c r="L663" s="100"/>
+      <c r="M663" s="100"/>
+      <c r="N663" s="100"/>
+      <c r="O663" s="100"/>
+      <c r="P663" s="100"/>
+      <c r="Q663" s="100"/>
+      <c r="R663" s="100"/>
+      <c r="S663" s="100"/>
+      <c r="T663" s="100"/>
+      <c r="U663" s="100"/>
+      <c r="V663" s="100"/>
+      <c r="W663" s="100"/>
+      <c r="X663" s="100"/>
+      <c r="Y663" s="100"/>
+      <c r="Z663" s="100"/>
+      <c r="AA663" s="100"/>
+      <c r="AB663" s="100"/>
+      <c r="AC663" s="100"/>
+      <c r="AD663" s="100"/>
+      <c r="AE663" s="100"/>
+      <c r="AF663" s="100"/>
     </row>
     <row r="664" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="665" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -48617,37 +48607,37 @@
     <row r="733" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="734" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="735" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B735" s="101"/>
-      <c r="C735" s="101"/>
-      <c r="D735" s="101"/>
-      <c r="E735" s="101"/>
-      <c r="F735" s="101"/>
-      <c r="G735" s="101"/>
-      <c r="H735" s="101"/>
-      <c r="I735" s="101"/>
-      <c r="J735" s="101"/>
-      <c r="K735" s="101"/>
-      <c r="L735" s="101"/>
-      <c r="M735" s="101"/>
-      <c r="N735" s="101"/>
-      <c r="O735" s="101"/>
-      <c r="P735" s="101"/>
-      <c r="Q735" s="101"/>
-      <c r="R735" s="101"/>
-      <c r="S735" s="101"/>
-      <c r="T735" s="101"/>
-      <c r="U735" s="101"/>
-      <c r="V735" s="101"/>
-      <c r="W735" s="101"/>
-      <c r="X735" s="101"/>
-      <c r="Y735" s="101"/>
-      <c r="Z735" s="101"/>
-      <c r="AA735" s="101"/>
-      <c r="AB735" s="101"/>
-      <c r="AC735" s="101"/>
-      <c r="AD735" s="101"/>
-      <c r="AE735" s="101"/>
-      <c r="AF735" s="101"/>
+      <c r="B735" s="100"/>
+      <c r="C735" s="100"/>
+      <c r="D735" s="100"/>
+      <c r="E735" s="100"/>
+      <c r="F735" s="100"/>
+      <c r="G735" s="100"/>
+      <c r="H735" s="100"/>
+      <c r="I735" s="100"/>
+      <c r="J735" s="100"/>
+      <c r="K735" s="100"/>
+      <c r="L735" s="100"/>
+      <c r="M735" s="100"/>
+      <c r="N735" s="100"/>
+      <c r="O735" s="100"/>
+      <c r="P735" s="100"/>
+      <c r="Q735" s="100"/>
+      <c r="R735" s="100"/>
+      <c r="S735" s="100"/>
+      <c r="T735" s="100"/>
+      <c r="U735" s="100"/>
+      <c r="V735" s="100"/>
+      <c r="W735" s="100"/>
+      <c r="X735" s="100"/>
+      <c r="Y735" s="100"/>
+      <c r="Z735" s="100"/>
+      <c r="AA735" s="100"/>
+      <c r="AB735" s="100"/>
+      <c r="AC735" s="100"/>
+      <c r="AD735" s="100"/>
+      <c r="AE735" s="100"/>
+      <c r="AF735" s="100"/>
     </row>
     <row r="736" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="737" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -48825,37 +48815,37 @@
     <row r="909" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="910" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="911" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B911" s="101"/>
-      <c r="C911" s="101"/>
-      <c r="D911" s="101"/>
-      <c r="E911" s="101"/>
-      <c r="F911" s="101"/>
-      <c r="G911" s="101"/>
-      <c r="H911" s="101"/>
-      <c r="I911" s="101"/>
-      <c r="J911" s="101"/>
-      <c r="K911" s="101"/>
-      <c r="L911" s="101"/>
-      <c r="M911" s="101"/>
-      <c r="N911" s="101"/>
-      <c r="O911" s="101"/>
-      <c r="P911" s="101"/>
-      <c r="Q911" s="101"/>
-      <c r="R911" s="101"/>
-      <c r="S911" s="101"/>
-      <c r="T911" s="101"/>
-      <c r="U911" s="101"/>
-      <c r="V911" s="101"/>
-      <c r="W911" s="101"/>
-      <c r="X911" s="101"/>
-      <c r="Y911" s="101"/>
-      <c r="Z911" s="101"/>
-      <c r="AA911" s="101"/>
-      <c r="AB911" s="101"/>
-      <c r="AC911" s="101"/>
-      <c r="AD911" s="101"/>
-      <c r="AE911" s="101"/>
-      <c r="AF911" s="101"/>
+      <c r="B911" s="100"/>
+      <c r="C911" s="100"/>
+      <c r="D911" s="100"/>
+      <c r="E911" s="100"/>
+      <c r="F911" s="100"/>
+      <c r="G911" s="100"/>
+      <c r="H911" s="100"/>
+      <c r="I911" s="100"/>
+      <c r="J911" s="100"/>
+      <c r="K911" s="100"/>
+      <c r="L911" s="100"/>
+      <c r="M911" s="100"/>
+      <c r="N911" s="100"/>
+      <c r="O911" s="100"/>
+      <c r="P911" s="100"/>
+      <c r="Q911" s="100"/>
+      <c r="R911" s="100"/>
+      <c r="S911" s="100"/>
+      <c r="T911" s="100"/>
+      <c r="U911" s="100"/>
+      <c r="V911" s="100"/>
+      <c r="W911" s="100"/>
+      <c r="X911" s="100"/>
+      <c r="Y911" s="100"/>
+      <c r="Z911" s="100"/>
+      <c r="AA911" s="100"/>
+      <c r="AB911" s="100"/>
+      <c r="AC911" s="100"/>
+      <c r="AD911" s="100"/>
+      <c r="AE911" s="100"/>
+      <c r="AF911" s="100"/>
     </row>
     <row r="912" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="913" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -48940,37 +48930,37 @@
     <row r="992" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="993" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="994" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B994" s="101"/>
-      <c r="C994" s="101"/>
-      <c r="D994" s="101"/>
-      <c r="E994" s="101"/>
-      <c r="F994" s="101"/>
-      <c r="G994" s="101"/>
-      <c r="H994" s="101"/>
-      <c r="I994" s="101"/>
-      <c r="J994" s="101"/>
-      <c r="K994" s="101"/>
-      <c r="L994" s="101"/>
-      <c r="M994" s="101"/>
-      <c r="N994" s="101"/>
-      <c r="O994" s="101"/>
-      <c r="P994" s="101"/>
-      <c r="Q994" s="101"/>
-      <c r="R994" s="101"/>
-      <c r="S994" s="101"/>
-      <c r="T994" s="101"/>
-      <c r="U994" s="101"/>
-      <c r="V994" s="101"/>
-      <c r="W994" s="101"/>
-      <c r="X994" s="101"/>
-      <c r="Y994" s="101"/>
-      <c r="Z994" s="101"/>
-      <c r="AA994" s="101"/>
-      <c r="AB994" s="101"/>
-      <c r="AC994" s="101"/>
-      <c r="AD994" s="101"/>
-      <c r="AE994" s="101"/>
-      <c r="AF994" s="101"/>
+      <c r="B994" s="100"/>
+      <c r="C994" s="100"/>
+      <c r="D994" s="100"/>
+      <c r="E994" s="100"/>
+      <c r="F994" s="100"/>
+      <c r="G994" s="100"/>
+      <c r="H994" s="100"/>
+      <c r="I994" s="100"/>
+      <c r="J994" s="100"/>
+      <c r="K994" s="100"/>
+      <c r="L994" s="100"/>
+      <c r="M994" s="100"/>
+      <c r="N994" s="100"/>
+      <c r="O994" s="100"/>
+      <c r="P994" s="100"/>
+      <c r="Q994" s="100"/>
+      <c r="R994" s="100"/>
+      <c r="S994" s="100"/>
+      <c r="T994" s="100"/>
+      <c r="U994" s="100"/>
+      <c r="V994" s="100"/>
+      <c r="W994" s="100"/>
+      <c r="X994" s="100"/>
+      <c r="Y994" s="100"/>
+      <c r="Z994" s="100"/>
+      <c r="AA994" s="100"/>
+      <c r="AB994" s="100"/>
+      <c r="AC994" s="100"/>
+      <c r="AD994" s="100"/>
+      <c r="AE994" s="100"/>
+      <c r="AF994" s="100"/>
     </row>
     <row r="995" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="996" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -49074,37 +49064,37 @@
     <row r="1094" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1095" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1096" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B1096" s="101"/>
-      <c r="C1096" s="101"/>
-      <c r="D1096" s="101"/>
-      <c r="E1096" s="101"/>
-      <c r="F1096" s="101"/>
-      <c r="G1096" s="101"/>
-      <c r="H1096" s="101"/>
-      <c r="I1096" s="101"/>
-      <c r="J1096" s="101"/>
-      <c r="K1096" s="101"/>
-      <c r="L1096" s="101"/>
-      <c r="M1096" s="101"/>
-      <c r="N1096" s="101"/>
-      <c r="O1096" s="101"/>
-      <c r="P1096" s="101"/>
-      <c r="Q1096" s="101"/>
-      <c r="R1096" s="101"/>
-      <c r="S1096" s="101"/>
-      <c r="T1096" s="101"/>
-      <c r="U1096" s="101"/>
-      <c r="V1096" s="101"/>
-      <c r="W1096" s="101"/>
-      <c r="X1096" s="101"/>
-      <c r="Y1096" s="101"/>
-      <c r="Z1096" s="101"/>
-      <c r="AA1096" s="101"/>
-      <c r="AB1096" s="101"/>
-      <c r="AC1096" s="101"/>
-      <c r="AD1096" s="101"/>
-      <c r="AE1096" s="101"/>
-      <c r="AF1096" s="101"/>
+      <c r="B1096" s="100"/>
+      <c r="C1096" s="100"/>
+      <c r="D1096" s="100"/>
+      <c r="E1096" s="100"/>
+      <c r="F1096" s="100"/>
+      <c r="G1096" s="100"/>
+      <c r="H1096" s="100"/>
+      <c r="I1096" s="100"/>
+      <c r="J1096" s="100"/>
+      <c r="K1096" s="100"/>
+      <c r="L1096" s="100"/>
+      <c r="M1096" s="100"/>
+      <c r="N1096" s="100"/>
+      <c r="O1096" s="100"/>
+      <c r="P1096" s="100"/>
+      <c r="Q1096" s="100"/>
+      <c r="R1096" s="100"/>
+      <c r="S1096" s="100"/>
+      <c r="T1096" s="100"/>
+      <c r="U1096" s="100"/>
+      <c r="V1096" s="100"/>
+      <c r="W1096" s="100"/>
+      <c r="X1096" s="100"/>
+      <c r="Y1096" s="100"/>
+      <c r="Z1096" s="100"/>
+      <c r="AA1096" s="100"/>
+      <c r="AB1096" s="100"/>
+      <c r="AC1096" s="100"/>
+      <c r="AD1096" s="100"/>
+      <c r="AE1096" s="100"/>
+      <c r="AF1096" s="100"/>
     </row>
     <row r="1097" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1098" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -49204,37 +49194,37 @@
     <row r="1192" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1193" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1194" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B1194" s="101"/>
-      <c r="C1194" s="101"/>
-      <c r="D1194" s="101"/>
-      <c r="E1194" s="101"/>
-      <c r="F1194" s="101"/>
-      <c r="G1194" s="101"/>
-      <c r="H1194" s="101"/>
-      <c r="I1194" s="101"/>
-      <c r="J1194" s="101"/>
-      <c r="K1194" s="101"/>
-      <c r="L1194" s="101"/>
-      <c r="M1194" s="101"/>
-      <c r="N1194" s="101"/>
-      <c r="O1194" s="101"/>
-      <c r="P1194" s="101"/>
-      <c r="Q1194" s="101"/>
-      <c r="R1194" s="101"/>
-      <c r="S1194" s="101"/>
-      <c r="T1194" s="101"/>
-      <c r="U1194" s="101"/>
-      <c r="V1194" s="101"/>
-      <c r="W1194" s="101"/>
-      <c r="X1194" s="101"/>
-      <c r="Y1194" s="101"/>
-      <c r="Z1194" s="101"/>
-      <c r="AA1194" s="101"/>
-      <c r="AB1194" s="101"/>
-      <c r="AC1194" s="101"/>
-      <c r="AD1194" s="101"/>
-      <c r="AE1194" s="101"/>
-      <c r="AF1194" s="101"/>
+      <c r="B1194" s="100"/>
+      <c r="C1194" s="100"/>
+      <c r="D1194" s="100"/>
+      <c r="E1194" s="100"/>
+      <c r="F1194" s="100"/>
+      <c r="G1194" s="100"/>
+      <c r="H1194" s="100"/>
+      <c r="I1194" s="100"/>
+      <c r="J1194" s="100"/>
+      <c r="K1194" s="100"/>
+      <c r="L1194" s="100"/>
+      <c r="M1194" s="100"/>
+      <c r="N1194" s="100"/>
+      <c r="O1194" s="100"/>
+      <c r="P1194" s="100"/>
+      <c r="Q1194" s="100"/>
+      <c r="R1194" s="100"/>
+      <c r="S1194" s="100"/>
+      <c r="T1194" s="100"/>
+      <c r="U1194" s="100"/>
+      <c r="V1194" s="100"/>
+      <c r="W1194" s="100"/>
+      <c r="X1194" s="100"/>
+      <c r="Y1194" s="100"/>
+      <c r="Z1194" s="100"/>
+      <c r="AA1194" s="100"/>
+      <c r="AB1194" s="100"/>
+      <c r="AC1194" s="100"/>
+      <c r="AD1194" s="100"/>
+      <c r="AE1194" s="100"/>
+      <c r="AF1194" s="100"/>
     </row>
     <row r="1195" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1196" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -49336,37 +49326,37 @@
     <row r="1292" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1293" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1294" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B1294" s="101"/>
-      <c r="C1294" s="101"/>
-      <c r="D1294" s="101"/>
-      <c r="E1294" s="101"/>
-      <c r="F1294" s="101"/>
-      <c r="G1294" s="101"/>
-      <c r="H1294" s="101"/>
-      <c r="I1294" s="101"/>
-      <c r="J1294" s="101"/>
-      <c r="K1294" s="101"/>
-      <c r="L1294" s="101"/>
-      <c r="M1294" s="101"/>
-      <c r="N1294" s="101"/>
-      <c r="O1294" s="101"/>
-      <c r="P1294" s="101"/>
-      <c r="Q1294" s="101"/>
-      <c r="R1294" s="101"/>
-      <c r="S1294" s="101"/>
-      <c r="T1294" s="101"/>
-      <c r="U1294" s="101"/>
-      <c r="V1294" s="101"/>
-      <c r="W1294" s="101"/>
-      <c r="X1294" s="101"/>
-      <c r="Y1294" s="101"/>
-      <c r="Z1294" s="101"/>
-      <c r="AA1294" s="101"/>
-      <c r="AB1294" s="101"/>
-      <c r="AC1294" s="101"/>
-      <c r="AD1294" s="101"/>
-      <c r="AE1294" s="101"/>
-      <c r="AF1294" s="101"/>
+      <c r="B1294" s="100"/>
+      <c r="C1294" s="100"/>
+      <c r="D1294" s="100"/>
+      <c r="E1294" s="100"/>
+      <c r="F1294" s="100"/>
+      <c r="G1294" s="100"/>
+      <c r="H1294" s="100"/>
+      <c r="I1294" s="100"/>
+      <c r="J1294" s="100"/>
+      <c r="K1294" s="100"/>
+      <c r="L1294" s="100"/>
+      <c r="M1294" s="100"/>
+      <c r="N1294" s="100"/>
+      <c r="O1294" s="100"/>
+      <c r="P1294" s="100"/>
+      <c r="Q1294" s="100"/>
+      <c r="R1294" s="100"/>
+      <c r="S1294" s="100"/>
+      <c r="T1294" s="100"/>
+      <c r="U1294" s="100"/>
+      <c r="V1294" s="100"/>
+      <c r="W1294" s="100"/>
+      <c r="X1294" s="100"/>
+      <c r="Y1294" s="100"/>
+      <c r="Z1294" s="100"/>
+      <c r="AA1294" s="100"/>
+      <c r="AB1294" s="100"/>
+      <c r="AC1294" s="100"/>
+      <c r="AD1294" s="100"/>
+      <c r="AE1294" s="100"/>
+      <c r="AF1294" s="100"/>
     </row>
     <row r="1295" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1296" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -49664,37 +49654,37 @@
     <row r="1588" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1589" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1590" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B1590" s="101"/>
-      <c r="C1590" s="101"/>
-      <c r="D1590" s="101"/>
-      <c r="E1590" s="101"/>
-      <c r="F1590" s="101"/>
-      <c r="G1590" s="101"/>
-      <c r="H1590" s="101"/>
-      <c r="I1590" s="101"/>
-      <c r="J1590" s="101"/>
-      <c r="K1590" s="101"/>
-      <c r="L1590" s="101"/>
-      <c r="M1590" s="101"/>
-      <c r="N1590" s="101"/>
-      <c r="O1590" s="101"/>
-      <c r="P1590" s="101"/>
-      <c r="Q1590" s="101"/>
-      <c r="R1590" s="101"/>
-      <c r="S1590" s="101"/>
-      <c r="T1590" s="101"/>
-      <c r="U1590" s="101"/>
-      <c r="V1590" s="101"/>
-      <c r="W1590" s="101"/>
-      <c r="X1590" s="101"/>
-      <c r="Y1590" s="101"/>
-      <c r="Z1590" s="101"/>
-      <c r="AA1590" s="101"/>
-      <c r="AB1590" s="101"/>
-      <c r="AC1590" s="101"/>
-      <c r="AD1590" s="101"/>
-      <c r="AE1590" s="101"/>
-      <c r="AF1590" s="101"/>
+      <c r="B1590" s="100"/>
+      <c r="C1590" s="100"/>
+      <c r="D1590" s="100"/>
+      <c r="E1590" s="100"/>
+      <c r="F1590" s="100"/>
+      <c r="G1590" s="100"/>
+      <c r="H1590" s="100"/>
+      <c r="I1590" s="100"/>
+      <c r="J1590" s="100"/>
+      <c r="K1590" s="100"/>
+      <c r="L1590" s="100"/>
+      <c r="M1590" s="100"/>
+      <c r="N1590" s="100"/>
+      <c r="O1590" s="100"/>
+      <c r="P1590" s="100"/>
+      <c r="Q1590" s="100"/>
+      <c r="R1590" s="100"/>
+      <c r="S1590" s="100"/>
+      <c r="T1590" s="100"/>
+      <c r="U1590" s="100"/>
+      <c r="V1590" s="100"/>
+      <c r="W1590" s="100"/>
+      <c r="X1590" s="100"/>
+      <c r="Y1590" s="100"/>
+      <c r="Z1590" s="100"/>
+      <c r="AA1590" s="100"/>
+      <c r="AB1590" s="100"/>
+      <c r="AC1590" s="100"/>
+      <c r="AD1590" s="100"/>
+      <c r="AE1590" s="100"/>
+      <c r="AF1590" s="100"/>
     </row>
     <row r="1591" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1592" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -49919,37 +49909,37 @@
     <row r="1811" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1812" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1813" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B1813" s="101"/>
-      <c r="C1813" s="101"/>
-      <c r="D1813" s="101"/>
-      <c r="E1813" s="101"/>
-      <c r="F1813" s="101"/>
-      <c r="G1813" s="101"/>
-      <c r="H1813" s="101"/>
-      <c r="I1813" s="101"/>
-      <c r="J1813" s="101"/>
-      <c r="K1813" s="101"/>
-      <c r="L1813" s="101"/>
-      <c r="M1813" s="101"/>
-      <c r="N1813" s="101"/>
-      <c r="O1813" s="101"/>
-      <c r="P1813" s="101"/>
-      <c r="Q1813" s="101"/>
-      <c r="R1813" s="101"/>
-      <c r="S1813" s="101"/>
-      <c r="T1813" s="101"/>
-      <c r="U1813" s="101"/>
-      <c r="V1813" s="101"/>
-      <c r="W1813" s="101"/>
-      <c r="X1813" s="101"/>
-      <c r="Y1813" s="101"/>
-      <c r="Z1813" s="101"/>
-      <c r="AA1813" s="101"/>
-      <c r="AB1813" s="101"/>
-      <c r="AC1813" s="101"/>
-      <c r="AD1813" s="101"/>
-      <c r="AE1813" s="101"/>
-      <c r="AF1813" s="101"/>
+      <c r="B1813" s="100"/>
+      <c r="C1813" s="100"/>
+      <c r="D1813" s="100"/>
+      <c r="E1813" s="100"/>
+      <c r="F1813" s="100"/>
+      <c r="G1813" s="100"/>
+      <c r="H1813" s="100"/>
+      <c r="I1813" s="100"/>
+      <c r="J1813" s="100"/>
+      <c r="K1813" s="100"/>
+      <c r="L1813" s="100"/>
+      <c r="M1813" s="100"/>
+      <c r="N1813" s="100"/>
+      <c r="O1813" s="100"/>
+      <c r="P1813" s="100"/>
+      <c r="Q1813" s="100"/>
+      <c r="R1813" s="100"/>
+      <c r="S1813" s="100"/>
+      <c r="T1813" s="100"/>
+      <c r="U1813" s="100"/>
+      <c r="V1813" s="100"/>
+      <c r="W1813" s="100"/>
+      <c r="X1813" s="100"/>
+      <c r="Y1813" s="100"/>
+      <c r="Z1813" s="100"/>
+      <c r="AA1813" s="100"/>
+      <c r="AB1813" s="100"/>
+      <c r="AC1813" s="100"/>
+      <c r="AD1813" s="100"/>
+      <c r="AE1813" s="100"/>
+      <c r="AF1813" s="100"/>
     </row>
     <row r="1814" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="1815" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -50228,37 +50218,37 @@
     <row r="2088" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="2089" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="2090" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B2090" s="101"/>
-      <c r="C2090" s="101"/>
-      <c r="D2090" s="101"/>
-      <c r="E2090" s="101"/>
-      <c r="F2090" s="101"/>
-      <c r="G2090" s="101"/>
-      <c r="H2090" s="101"/>
-      <c r="I2090" s="101"/>
-      <c r="J2090" s="101"/>
-      <c r="K2090" s="101"/>
-      <c r="L2090" s="101"/>
-      <c r="M2090" s="101"/>
-      <c r="N2090" s="101"/>
-      <c r="O2090" s="101"/>
-      <c r="P2090" s="101"/>
-      <c r="Q2090" s="101"/>
-      <c r="R2090" s="101"/>
-      <c r="S2090" s="101"/>
-      <c r="T2090" s="101"/>
-      <c r="U2090" s="101"/>
-      <c r="V2090" s="101"/>
-      <c r="W2090" s="101"/>
-      <c r="X2090" s="101"/>
-      <c r="Y2090" s="101"/>
-      <c r="Z2090" s="101"/>
-      <c r="AA2090" s="101"/>
-      <c r="AB2090" s="101"/>
-      <c r="AC2090" s="101"/>
-      <c r="AD2090" s="101"/>
-      <c r="AE2090" s="101"/>
-      <c r="AF2090" s="101"/>
+      <c r="B2090" s="100"/>
+      <c r="C2090" s="100"/>
+      <c r="D2090" s="100"/>
+      <c r="E2090" s="100"/>
+      <c r="F2090" s="100"/>
+      <c r="G2090" s="100"/>
+      <c r="H2090" s="100"/>
+      <c r="I2090" s="100"/>
+      <c r="J2090" s="100"/>
+      <c r="K2090" s="100"/>
+      <c r="L2090" s="100"/>
+      <c r="M2090" s="100"/>
+      <c r="N2090" s="100"/>
+      <c r="O2090" s="100"/>
+      <c r="P2090" s="100"/>
+      <c r="Q2090" s="100"/>
+      <c r="R2090" s="100"/>
+      <c r="S2090" s="100"/>
+      <c r="T2090" s="100"/>
+      <c r="U2090" s="100"/>
+      <c r="V2090" s="100"/>
+      <c r="W2090" s="100"/>
+      <c r="X2090" s="100"/>
+      <c r="Y2090" s="100"/>
+      <c r="Z2090" s="100"/>
+      <c r="AA2090" s="100"/>
+      <c r="AB2090" s="100"/>
+      <c r="AC2090" s="100"/>
+      <c r="AD2090" s="100"/>
+      <c r="AE2090" s="100"/>
+      <c r="AF2090" s="100"/>
     </row>
     <row r="2091" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="2092" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -50595,37 +50585,37 @@
     <row r="2423" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="2424" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="2425" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B2425" s="101"/>
-      <c r="C2425" s="101"/>
-      <c r="D2425" s="101"/>
-      <c r="E2425" s="101"/>
-      <c r="F2425" s="101"/>
-      <c r="G2425" s="101"/>
-      <c r="H2425" s="101"/>
-      <c r="I2425" s="101"/>
-      <c r="J2425" s="101"/>
-      <c r="K2425" s="101"/>
-      <c r="L2425" s="101"/>
-      <c r="M2425" s="101"/>
-      <c r="N2425" s="101"/>
-      <c r="O2425" s="101"/>
-      <c r="P2425" s="101"/>
-      <c r="Q2425" s="101"/>
-      <c r="R2425" s="101"/>
-      <c r="S2425" s="101"/>
-      <c r="T2425" s="101"/>
-      <c r="U2425" s="101"/>
-      <c r="V2425" s="101"/>
-      <c r="W2425" s="101"/>
-      <c r="X2425" s="101"/>
-      <c r="Y2425" s="101"/>
-      <c r="Z2425" s="101"/>
-      <c r="AA2425" s="101"/>
-      <c r="AB2425" s="101"/>
-      <c r="AC2425" s="101"/>
-      <c r="AD2425" s="101"/>
-      <c r="AE2425" s="101"/>
-      <c r="AF2425" s="101"/>
+      <c r="B2425" s="100"/>
+      <c r="C2425" s="100"/>
+      <c r="D2425" s="100"/>
+      <c r="E2425" s="100"/>
+      <c r="F2425" s="100"/>
+      <c r="G2425" s="100"/>
+      <c r="H2425" s="100"/>
+      <c r="I2425" s="100"/>
+      <c r="J2425" s="100"/>
+      <c r="K2425" s="100"/>
+      <c r="L2425" s="100"/>
+      <c r="M2425" s="100"/>
+      <c r="N2425" s="100"/>
+      <c r="O2425" s="100"/>
+      <c r="P2425" s="100"/>
+      <c r="Q2425" s="100"/>
+      <c r="R2425" s="100"/>
+      <c r="S2425" s="100"/>
+      <c r="T2425" s="100"/>
+      <c r="U2425" s="100"/>
+      <c r="V2425" s="100"/>
+      <c r="W2425" s="100"/>
+      <c r="X2425" s="100"/>
+      <c r="Y2425" s="100"/>
+      <c r="Z2425" s="100"/>
+      <c r="AA2425" s="100"/>
+      <c r="AB2425" s="100"/>
+      <c r="AC2425" s="100"/>
+      <c r="AD2425" s="100"/>
+      <c r="AE2425" s="100"/>
+      <c r="AF2425" s="100"/>
     </row>
     <row r="2426" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="2427" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -50947,37 +50937,37 @@
     <row r="2743" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="2744" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="2745" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B2745" s="101"/>
-      <c r="C2745" s="101"/>
-      <c r="D2745" s="101"/>
-      <c r="E2745" s="101"/>
-      <c r="F2745" s="101"/>
-      <c r="G2745" s="101"/>
-      <c r="H2745" s="101"/>
-      <c r="I2745" s="101"/>
-      <c r="J2745" s="101"/>
-      <c r="K2745" s="101"/>
-      <c r="L2745" s="101"/>
-      <c r="M2745" s="101"/>
-      <c r="N2745" s="101"/>
-      <c r="O2745" s="101"/>
-      <c r="P2745" s="101"/>
-      <c r="Q2745" s="101"/>
-      <c r="R2745" s="101"/>
-      <c r="S2745" s="101"/>
-      <c r="T2745" s="101"/>
-      <c r="U2745" s="101"/>
-      <c r="V2745" s="101"/>
-      <c r="W2745" s="101"/>
-      <c r="X2745" s="101"/>
-      <c r="Y2745" s="101"/>
-      <c r="Z2745" s="101"/>
-      <c r="AA2745" s="101"/>
-      <c r="AB2745" s="101"/>
-      <c r="AC2745" s="101"/>
-      <c r="AD2745" s="101"/>
-      <c r="AE2745" s="101"/>
-      <c r="AF2745" s="101"/>
+      <c r="B2745" s="100"/>
+      <c r="C2745" s="100"/>
+      <c r="D2745" s="100"/>
+      <c r="E2745" s="100"/>
+      <c r="F2745" s="100"/>
+      <c r="G2745" s="100"/>
+      <c r="H2745" s="100"/>
+      <c r="I2745" s="100"/>
+      <c r="J2745" s="100"/>
+      <c r="K2745" s="100"/>
+      <c r="L2745" s="100"/>
+      <c r="M2745" s="100"/>
+      <c r="N2745" s="100"/>
+      <c r="O2745" s="100"/>
+      <c r="P2745" s="100"/>
+      <c r="Q2745" s="100"/>
+      <c r="R2745" s="100"/>
+      <c r="S2745" s="100"/>
+      <c r="T2745" s="100"/>
+      <c r="U2745" s="100"/>
+      <c r="V2745" s="100"/>
+      <c r="W2745" s="100"/>
+      <c r="X2745" s="100"/>
+      <c r="Y2745" s="100"/>
+      <c r="Z2745" s="100"/>
+      <c r="AA2745" s="100"/>
+      <c r="AB2745" s="100"/>
+      <c r="AC2745" s="100"/>
+      <c r="AD2745" s="100"/>
+      <c r="AE2745" s="100"/>
+      <c r="AF2745" s="100"/>
     </row>
     <row r="2746" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="2747" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -51310,37 +51300,37 @@
     <row r="3074" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3075" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3076" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B3076" s="101"/>
-      <c r="C3076" s="101"/>
-      <c r="D3076" s="101"/>
-      <c r="E3076" s="101"/>
-      <c r="F3076" s="101"/>
-      <c r="G3076" s="101"/>
-      <c r="H3076" s="101"/>
-      <c r="I3076" s="101"/>
-      <c r="J3076" s="101"/>
-      <c r="K3076" s="101"/>
-      <c r="L3076" s="101"/>
-      <c r="M3076" s="101"/>
-      <c r="N3076" s="101"/>
-      <c r="O3076" s="101"/>
-      <c r="P3076" s="101"/>
-      <c r="Q3076" s="101"/>
-      <c r="R3076" s="101"/>
-      <c r="S3076" s="101"/>
-      <c r="T3076" s="101"/>
-      <c r="U3076" s="101"/>
-      <c r="V3076" s="101"/>
-      <c r="W3076" s="101"/>
-      <c r="X3076" s="101"/>
-      <c r="Y3076" s="101"/>
-      <c r="Z3076" s="101"/>
-      <c r="AA3076" s="101"/>
-      <c r="AB3076" s="101"/>
-      <c r="AC3076" s="101"/>
-      <c r="AD3076" s="101"/>
-      <c r="AE3076" s="101"/>
-      <c r="AF3076" s="101"/>
+      <c r="B3076" s="100"/>
+      <c r="C3076" s="100"/>
+      <c r="D3076" s="100"/>
+      <c r="E3076" s="100"/>
+      <c r="F3076" s="100"/>
+      <c r="G3076" s="100"/>
+      <c r="H3076" s="100"/>
+      <c r="I3076" s="100"/>
+      <c r="J3076" s="100"/>
+      <c r="K3076" s="100"/>
+      <c r="L3076" s="100"/>
+      <c r="M3076" s="100"/>
+      <c r="N3076" s="100"/>
+      <c r="O3076" s="100"/>
+      <c r="P3076" s="100"/>
+      <c r="Q3076" s="100"/>
+      <c r="R3076" s="100"/>
+      <c r="S3076" s="100"/>
+      <c r="T3076" s="100"/>
+      <c r="U3076" s="100"/>
+      <c r="V3076" s="100"/>
+      <c r="W3076" s="100"/>
+      <c r="X3076" s="100"/>
+      <c r="Y3076" s="100"/>
+      <c r="Z3076" s="100"/>
+      <c r="AA3076" s="100"/>
+      <c r="AB3076" s="100"/>
+      <c r="AC3076" s="100"/>
+      <c r="AD3076" s="100"/>
+      <c r="AE3076" s="100"/>
+      <c r="AF3076" s="100"/>
     </row>
     <row r="3077" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3078" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -51659,37 +51649,37 @@
     <row r="3391" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3392" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3393" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B3393" s="101"/>
-      <c r="C3393" s="101"/>
-      <c r="D3393" s="101"/>
-      <c r="E3393" s="101"/>
-      <c r="F3393" s="101"/>
-      <c r="G3393" s="101"/>
-      <c r="H3393" s="101"/>
-      <c r="I3393" s="101"/>
-      <c r="J3393" s="101"/>
-      <c r="K3393" s="101"/>
-      <c r="L3393" s="101"/>
-      <c r="M3393" s="101"/>
-      <c r="N3393" s="101"/>
-      <c r="O3393" s="101"/>
-      <c r="P3393" s="101"/>
-      <c r="Q3393" s="101"/>
-      <c r="R3393" s="101"/>
-      <c r="S3393" s="101"/>
-      <c r="T3393" s="101"/>
-      <c r="U3393" s="101"/>
-      <c r="V3393" s="101"/>
-      <c r="W3393" s="101"/>
-      <c r="X3393" s="101"/>
-      <c r="Y3393" s="101"/>
-      <c r="Z3393" s="101"/>
-      <c r="AA3393" s="101"/>
-      <c r="AB3393" s="101"/>
-      <c r="AC3393" s="101"/>
-      <c r="AD3393" s="101"/>
-      <c r="AE3393" s="101"/>
-      <c r="AF3393" s="101"/>
+      <c r="B3393" s="100"/>
+      <c r="C3393" s="100"/>
+      <c r="D3393" s="100"/>
+      <c r="E3393" s="100"/>
+      <c r="F3393" s="100"/>
+      <c r="G3393" s="100"/>
+      <c r="H3393" s="100"/>
+      <c r="I3393" s="100"/>
+      <c r="J3393" s="100"/>
+      <c r="K3393" s="100"/>
+      <c r="L3393" s="100"/>
+      <c r="M3393" s="100"/>
+      <c r="N3393" s="100"/>
+      <c r="O3393" s="100"/>
+      <c r="P3393" s="100"/>
+      <c r="Q3393" s="100"/>
+      <c r="R3393" s="100"/>
+      <c r="S3393" s="100"/>
+      <c r="T3393" s="100"/>
+      <c r="U3393" s="100"/>
+      <c r="V3393" s="100"/>
+      <c r="W3393" s="100"/>
+      <c r="X3393" s="100"/>
+      <c r="Y3393" s="100"/>
+      <c r="Z3393" s="100"/>
+      <c r="AA3393" s="100"/>
+      <c r="AB3393" s="100"/>
+      <c r="AC3393" s="100"/>
+      <c r="AD3393" s="100"/>
+      <c r="AE3393" s="100"/>
+      <c r="AF3393" s="100"/>
     </row>
     <row r="3394" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3395" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -51800,37 +51790,37 @@
     <row r="3500" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3501" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3502" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B3502" s="101"/>
-      <c r="C3502" s="101"/>
-      <c r="D3502" s="101"/>
-      <c r="E3502" s="101"/>
-      <c r="F3502" s="101"/>
-      <c r="G3502" s="101"/>
-      <c r="H3502" s="101"/>
-      <c r="I3502" s="101"/>
-      <c r="J3502" s="101"/>
-      <c r="K3502" s="101"/>
-      <c r="L3502" s="101"/>
-      <c r="M3502" s="101"/>
-      <c r="N3502" s="101"/>
-      <c r="O3502" s="101"/>
-      <c r="P3502" s="101"/>
-      <c r="Q3502" s="101"/>
-      <c r="R3502" s="101"/>
-      <c r="S3502" s="101"/>
-      <c r="T3502" s="101"/>
-      <c r="U3502" s="101"/>
-      <c r="V3502" s="101"/>
-      <c r="W3502" s="101"/>
-      <c r="X3502" s="101"/>
-      <c r="Y3502" s="101"/>
-      <c r="Z3502" s="101"/>
-      <c r="AA3502" s="101"/>
-      <c r="AB3502" s="101"/>
-      <c r="AC3502" s="101"/>
-      <c r="AD3502" s="101"/>
-      <c r="AE3502" s="101"/>
-      <c r="AF3502" s="101"/>
+      <c r="B3502" s="100"/>
+      <c r="C3502" s="100"/>
+      <c r="D3502" s="100"/>
+      <c r="E3502" s="100"/>
+      <c r="F3502" s="100"/>
+      <c r="G3502" s="100"/>
+      <c r="H3502" s="100"/>
+      <c r="I3502" s="100"/>
+      <c r="J3502" s="100"/>
+      <c r="K3502" s="100"/>
+      <c r="L3502" s="100"/>
+      <c r="M3502" s="100"/>
+      <c r="N3502" s="100"/>
+      <c r="O3502" s="100"/>
+      <c r="P3502" s="100"/>
+      <c r="Q3502" s="100"/>
+      <c r="R3502" s="100"/>
+      <c r="S3502" s="100"/>
+      <c r="T3502" s="100"/>
+      <c r="U3502" s="100"/>
+      <c r="V3502" s="100"/>
+      <c r="W3502" s="100"/>
+      <c r="X3502" s="100"/>
+      <c r="Y3502" s="100"/>
+      <c r="Z3502" s="100"/>
+      <c r="AA3502" s="100"/>
+      <c r="AB3502" s="100"/>
+      <c r="AC3502" s="100"/>
+      <c r="AD3502" s="100"/>
+      <c r="AE3502" s="100"/>
+      <c r="AF3502" s="100"/>
     </row>
     <row r="3503" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3504" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -51957,37 +51947,37 @@
     <row r="3625" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3626" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3627" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B3627" s="101"/>
-      <c r="C3627" s="101"/>
-      <c r="D3627" s="101"/>
-      <c r="E3627" s="101"/>
-      <c r="F3627" s="101"/>
-      <c r="G3627" s="101"/>
-      <c r="H3627" s="101"/>
-      <c r="I3627" s="101"/>
-      <c r="J3627" s="101"/>
-      <c r="K3627" s="101"/>
-      <c r="L3627" s="101"/>
-      <c r="M3627" s="101"/>
-      <c r="N3627" s="101"/>
-      <c r="O3627" s="101"/>
-      <c r="P3627" s="101"/>
-      <c r="Q3627" s="101"/>
-      <c r="R3627" s="101"/>
-      <c r="S3627" s="101"/>
-      <c r="T3627" s="101"/>
-      <c r="U3627" s="101"/>
-      <c r="V3627" s="101"/>
-      <c r="W3627" s="101"/>
-      <c r="X3627" s="101"/>
-      <c r="Y3627" s="101"/>
-      <c r="Z3627" s="101"/>
-      <c r="AA3627" s="101"/>
-      <c r="AB3627" s="101"/>
-      <c r="AC3627" s="101"/>
-      <c r="AD3627" s="101"/>
-      <c r="AE3627" s="101"/>
-      <c r="AF3627" s="101"/>
+      <c r="B3627" s="100"/>
+      <c r="C3627" s="100"/>
+      <c r="D3627" s="100"/>
+      <c r="E3627" s="100"/>
+      <c r="F3627" s="100"/>
+      <c r="G3627" s="100"/>
+      <c r="H3627" s="100"/>
+      <c r="I3627" s="100"/>
+      <c r="J3627" s="100"/>
+      <c r="K3627" s="100"/>
+      <c r="L3627" s="100"/>
+      <c r="M3627" s="100"/>
+      <c r="N3627" s="100"/>
+      <c r="O3627" s="100"/>
+      <c r="P3627" s="100"/>
+      <c r="Q3627" s="100"/>
+      <c r="R3627" s="100"/>
+      <c r="S3627" s="100"/>
+      <c r="T3627" s="100"/>
+      <c r="U3627" s="100"/>
+      <c r="V3627" s="100"/>
+      <c r="W3627" s="100"/>
+      <c r="X3627" s="100"/>
+      <c r="Y3627" s="100"/>
+      <c r="Z3627" s="100"/>
+      <c r="AA3627" s="100"/>
+      <c r="AB3627" s="100"/>
+      <c r="AC3627" s="100"/>
+      <c r="AD3627" s="100"/>
+      <c r="AE3627" s="100"/>
+      <c r="AF3627" s="100"/>
     </row>
     <row r="3628" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3629" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -52114,37 +52104,37 @@
     <row r="3750" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3751" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3752" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B3752" s="101"/>
-      <c r="C3752" s="101"/>
-      <c r="D3752" s="101"/>
-      <c r="E3752" s="101"/>
-      <c r="F3752" s="101"/>
-      <c r="G3752" s="101"/>
-      <c r="H3752" s="101"/>
-      <c r="I3752" s="101"/>
-      <c r="J3752" s="101"/>
-      <c r="K3752" s="101"/>
-      <c r="L3752" s="101"/>
-      <c r="M3752" s="101"/>
-      <c r="N3752" s="101"/>
-      <c r="O3752" s="101"/>
-      <c r="P3752" s="101"/>
-      <c r="Q3752" s="101"/>
-      <c r="R3752" s="101"/>
-      <c r="S3752" s="101"/>
-      <c r="T3752" s="101"/>
-      <c r="U3752" s="101"/>
-      <c r="V3752" s="101"/>
-      <c r="W3752" s="101"/>
-      <c r="X3752" s="101"/>
-      <c r="Y3752" s="101"/>
-      <c r="Z3752" s="101"/>
-      <c r="AA3752" s="101"/>
-      <c r="AB3752" s="101"/>
-      <c r="AC3752" s="101"/>
-      <c r="AD3752" s="101"/>
-      <c r="AE3752" s="101"/>
-      <c r="AF3752" s="101"/>
+      <c r="B3752" s="100"/>
+      <c r="C3752" s="100"/>
+      <c r="D3752" s="100"/>
+      <c r="E3752" s="100"/>
+      <c r="F3752" s="100"/>
+      <c r="G3752" s="100"/>
+      <c r="H3752" s="100"/>
+      <c r="I3752" s="100"/>
+      <c r="J3752" s="100"/>
+      <c r="K3752" s="100"/>
+      <c r="L3752" s="100"/>
+      <c r="M3752" s="100"/>
+      <c r="N3752" s="100"/>
+      <c r="O3752" s="100"/>
+      <c r="P3752" s="100"/>
+      <c r="Q3752" s="100"/>
+      <c r="R3752" s="100"/>
+      <c r="S3752" s="100"/>
+      <c r="T3752" s="100"/>
+      <c r="U3752" s="100"/>
+      <c r="V3752" s="100"/>
+      <c r="W3752" s="100"/>
+      <c r="X3752" s="100"/>
+      <c r="Y3752" s="100"/>
+      <c r="Z3752" s="100"/>
+      <c r="AA3752" s="100"/>
+      <c r="AB3752" s="100"/>
+      <c r="AC3752" s="100"/>
+      <c r="AD3752" s="100"/>
+      <c r="AE3752" s="100"/>
+      <c r="AF3752" s="100"/>
     </row>
     <row r="3753" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3754" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -52271,37 +52261,37 @@
     <row r="3875" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3876" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3877" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B3877" s="101"/>
-      <c r="C3877" s="101"/>
-      <c r="D3877" s="101"/>
-      <c r="E3877" s="101"/>
-      <c r="F3877" s="101"/>
-      <c r="G3877" s="101"/>
-      <c r="H3877" s="101"/>
-      <c r="I3877" s="101"/>
-      <c r="J3877" s="101"/>
-      <c r="K3877" s="101"/>
-      <c r="L3877" s="101"/>
-      <c r="M3877" s="101"/>
-      <c r="N3877" s="101"/>
-      <c r="O3877" s="101"/>
-      <c r="P3877" s="101"/>
-      <c r="Q3877" s="101"/>
-      <c r="R3877" s="101"/>
-      <c r="S3877" s="101"/>
-      <c r="T3877" s="101"/>
-      <c r="U3877" s="101"/>
-      <c r="V3877" s="101"/>
-      <c r="W3877" s="101"/>
-      <c r="X3877" s="101"/>
-      <c r="Y3877" s="101"/>
-      <c r="Z3877" s="101"/>
-      <c r="AA3877" s="101"/>
-      <c r="AB3877" s="101"/>
-      <c r="AC3877" s="101"/>
-      <c r="AD3877" s="101"/>
-      <c r="AE3877" s="101"/>
-      <c r="AF3877" s="101"/>
+      <c r="B3877" s="100"/>
+      <c r="C3877" s="100"/>
+      <c r="D3877" s="100"/>
+      <c r="E3877" s="100"/>
+      <c r="F3877" s="100"/>
+      <c r="G3877" s="100"/>
+      <c r="H3877" s="100"/>
+      <c r="I3877" s="100"/>
+      <c r="J3877" s="100"/>
+      <c r="K3877" s="100"/>
+      <c r="L3877" s="100"/>
+      <c r="M3877" s="100"/>
+      <c r="N3877" s="100"/>
+      <c r="O3877" s="100"/>
+      <c r="P3877" s="100"/>
+      <c r="Q3877" s="100"/>
+      <c r="R3877" s="100"/>
+      <c r="S3877" s="100"/>
+      <c r="T3877" s="100"/>
+      <c r="U3877" s="100"/>
+      <c r="V3877" s="100"/>
+      <c r="W3877" s="100"/>
+      <c r="X3877" s="100"/>
+      <c r="Y3877" s="100"/>
+      <c r="Z3877" s="100"/>
+      <c r="AA3877" s="100"/>
+      <c r="AB3877" s="100"/>
+      <c r="AC3877" s="100"/>
+      <c r="AD3877" s="100"/>
+      <c r="AE3877" s="100"/>
+      <c r="AF3877" s="100"/>
     </row>
     <row r="3878" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="3879" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -52428,37 +52418,37 @@
     <row r="4000" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4001" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4002" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B4002" s="101"/>
-      <c r="C4002" s="101"/>
-      <c r="D4002" s="101"/>
-      <c r="E4002" s="101"/>
-      <c r="F4002" s="101"/>
-      <c r="G4002" s="101"/>
-      <c r="H4002" s="101"/>
-      <c r="I4002" s="101"/>
-      <c r="J4002" s="101"/>
-      <c r="K4002" s="101"/>
-      <c r="L4002" s="101"/>
-      <c r="M4002" s="101"/>
-      <c r="N4002" s="101"/>
-      <c r="O4002" s="101"/>
-      <c r="P4002" s="101"/>
-      <c r="Q4002" s="101"/>
-      <c r="R4002" s="101"/>
-      <c r="S4002" s="101"/>
-      <c r="T4002" s="101"/>
-      <c r="U4002" s="101"/>
-      <c r="V4002" s="101"/>
-      <c r="W4002" s="101"/>
-      <c r="X4002" s="101"/>
-      <c r="Y4002" s="101"/>
-      <c r="Z4002" s="101"/>
-      <c r="AA4002" s="101"/>
-      <c r="AB4002" s="101"/>
-      <c r="AC4002" s="101"/>
-      <c r="AD4002" s="101"/>
-      <c r="AE4002" s="101"/>
-      <c r="AF4002" s="101"/>
+      <c r="B4002" s="100"/>
+      <c r="C4002" s="100"/>
+      <c r="D4002" s="100"/>
+      <c r="E4002" s="100"/>
+      <c r="F4002" s="100"/>
+      <c r="G4002" s="100"/>
+      <c r="H4002" s="100"/>
+      <c r="I4002" s="100"/>
+      <c r="J4002" s="100"/>
+      <c r="K4002" s="100"/>
+      <c r="L4002" s="100"/>
+      <c r="M4002" s="100"/>
+      <c r="N4002" s="100"/>
+      <c r="O4002" s="100"/>
+      <c r="P4002" s="100"/>
+      <c r="Q4002" s="100"/>
+      <c r="R4002" s="100"/>
+      <c r="S4002" s="100"/>
+      <c r="T4002" s="100"/>
+      <c r="U4002" s="100"/>
+      <c r="V4002" s="100"/>
+      <c r="W4002" s="100"/>
+      <c r="X4002" s="100"/>
+      <c r="Y4002" s="100"/>
+      <c r="Z4002" s="100"/>
+      <c r="AA4002" s="100"/>
+      <c r="AB4002" s="100"/>
+      <c r="AC4002" s="100"/>
+      <c r="AD4002" s="100"/>
+      <c r="AE4002" s="100"/>
+      <c r="AF4002" s="100"/>
     </row>
     <row r="4003" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4004" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -52585,37 +52575,37 @@
     <row r="4125" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4126" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4127" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B4127" s="101"/>
-      <c r="C4127" s="101"/>
-      <c r="D4127" s="101"/>
-      <c r="E4127" s="101"/>
-      <c r="F4127" s="101"/>
-      <c r="G4127" s="101"/>
-      <c r="H4127" s="101"/>
-      <c r="I4127" s="101"/>
-      <c r="J4127" s="101"/>
-      <c r="K4127" s="101"/>
-      <c r="L4127" s="101"/>
-      <c r="M4127" s="101"/>
-      <c r="N4127" s="101"/>
-      <c r="O4127" s="101"/>
-      <c r="P4127" s="101"/>
-      <c r="Q4127" s="101"/>
-      <c r="R4127" s="101"/>
-      <c r="S4127" s="101"/>
-      <c r="T4127" s="101"/>
-      <c r="U4127" s="101"/>
-      <c r="V4127" s="101"/>
-      <c r="W4127" s="101"/>
-      <c r="X4127" s="101"/>
-      <c r="Y4127" s="101"/>
-      <c r="Z4127" s="101"/>
-      <c r="AA4127" s="101"/>
-      <c r="AB4127" s="101"/>
-      <c r="AC4127" s="101"/>
-      <c r="AD4127" s="101"/>
-      <c r="AE4127" s="101"/>
-      <c r="AF4127" s="101"/>
+      <c r="B4127" s="100"/>
+      <c r="C4127" s="100"/>
+      <c r="D4127" s="100"/>
+      <c r="E4127" s="100"/>
+      <c r="F4127" s="100"/>
+      <c r="G4127" s="100"/>
+      <c r="H4127" s="100"/>
+      <c r="I4127" s="100"/>
+      <c r="J4127" s="100"/>
+      <c r="K4127" s="100"/>
+      <c r="L4127" s="100"/>
+      <c r="M4127" s="100"/>
+      <c r="N4127" s="100"/>
+      <c r="O4127" s="100"/>
+      <c r="P4127" s="100"/>
+      <c r="Q4127" s="100"/>
+      <c r="R4127" s="100"/>
+      <c r="S4127" s="100"/>
+      <c r="T4127" s="100"/>
+      <c r="U4127" s="100"/>
+      <c r="V4127" s="100"/>
+      <c r="W4127" s="100"/>
+      <c r="X4127" s="100"/>
+      <c r="Y4127" s="100"/>
+      <c r="Z4127" s="100"/>
+      <c r="AA4127" s="100"/>
+      <c r="AB4127" s="100"/>
+      <c r="AC4127" s="100"/>
+      <c r="AD4127" s="100"/>
+      <c r="AE4127" s="100"/>
+      <c r="AF4127" s="100"/>
     </row>
     <row r="4128" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4129" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -52742,37 +52732,37 @@
     <row r="4250" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4251" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4252" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B4252" s="101"/>
-      <c r="C4252" s="101"/>
-      <c r="D4252" s="101"/>
-      <c r="E4252" s="101"/>
-      <c r="F4252" s="101"/>
-      <c r="G4252" s="101"/>
-      <c r="H4252" s="101"/>
-      <c r="I4252" s="101"/>
-      <c r="J4252" s="101"/>
-      <c r="K4252" s="101"/>
-      <c r="L4252" s="101"/>
-      <c r="M4252" s="101"/>
-      <c r="N4252" s="101"/>
-      <c r="O4252" s="101"/>
-      <c r="P4252" s="101"/>
-      <c r="Q4252" s="101"/>
-      <c r="R4252" s="101"/>
-      <c r="S4252" s="101"/>
-      <c r="T4252" s="101"/>
-      <c r="U4252" s="101"/>
-      <c r="V4252" s="101"/>
-      <c r="W4252" s="101"/>
-      <c r="X4252" s="101"/>
-      <c r="Y4252" s="101"/>
-      <c r="Z4252" s="101"/>
-      <c r="AA4252" s="101"/>
-      <c r="AB4252" s="101"/>
-      <c r="AC4252" s="101"/>
-      <c r="AD4252" s="101"/>
-      <c r="AE4252" s="101"/>
-      <c r="AF4252" s="101"/>
+      <c r="B4252" s="100"/>
+      <c r="C4252" s="100"/>
+      <c r="D4252" s="100"/>
+      <c r="E4252" s="100"/>
+      <c r="F4252" s="100"/>
+      <c r="G4252" s="100"/>
+      <c r="H4252" s="100"/>
+      <c r="I4252" s="100"/>
+      <c r="J4252" s="100"/>
+      <c r="K4252" s="100"/>
+      <c r="L4252" s="100"/>
+      <c r="M4252" s="100"/>
+      <c r="N4252" s="100"/>
+      <c r="O4252" s="100"/>
+      <c r="P4252" s="100"/>
+      <c r="Q4252" s="100"/>
+      <c r="R4252" s="100"/>
+      <c r="S4252" s="100"/>
+      <c r="T4252" s="100"/>
+      <c r="U4252" s="100"/>
+      <c r="V4252" s="100"/>
+      <c r="W4252" s="100"/>
+      <c r="X4252" s="100"/>
+      <c r="Y4252" s="100"/>
+      <c r="Z4252" s="100"/>
+      <c r="AA4252" s="100"/>
+      <c r="AB4252" s="100"/>
+      <c r="AC4252" s="100"/>
+      <c r="AD4252" s="100"/>
+      <c r="AE4252" s="100"/>
+      <c r="AF4252" s="100"/>
     </row>
     <row r="4253" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4254" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -52899,37 +52889,37 @@
     <row r="4375" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4376" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4377" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B4377" s="101"/>
-      <c r="C4377" s="101"/>
-      <c r="D4377" s="101"/>
-      <c r="E4377" s="101"/>
-      <c r="F4377" s="101"/>
-      <c r="G4377" s="101"/>
-      <c r="H4377" s="101"/>
-      <c r="I4377" s="101"/>
-      <c r="J4377" s="101"/>
-      <c r="K4377" s="101"/>
-      <c r="L4377" s="101"/>
-      <c r="M4377" s="101"/>
-      <c r="N4377" s="101"/>
-      <c r="O4377" s="101"/>
-      <c r="P4377" s="101"/>
-      <c r="Q4377" s="101"/>
-      <c r="R4377" s="101"/>
-      <c r="S4377" s="101"/>
-      <c r="T4377" s="101"/>
-      <c r="U4377" s="101"/>
-      <c r="V4377" s="101"/>
-      <c r="W4377" s="101"/>
-      <c r="X4377" s="101"/>
-      <c r="Y4377" s="101"/>
-      <c r="Z4377" s="101"/>
-      <c r="AA4377" s="101"/>
-      <c r="AB4377" s="101"/>
-      <c r="AC4377" s="101"/>
-      <c r="AD4377" s="101"/>
-      <c r="AE4377" s="101"/>
-      <c r="AF4377" s="101"/>
+      <c r="B4377" s="100"/>
+      <c r="C4377" s="100"/>
+      <c r="D4377" s="100"/>
+      <c r="E4377" s="100"/>
+      <c r="F4377" s="100"/>
+      <c r="G4377" s="100"/>
+      <c r="H4377" s="100"/>
+      <c r="I4377" s="100"/>
+      <c r="J4377" s="100"/>
+      <c r="K4377" s="100"/>
+      <c r="L4377" s="100"/>
+      <c r="M4377" s="100"/>
+      <c r="N4377" s="100"/>
+      <c r="O4377" s="100"/>
+      <c r="P4377" s="100"/>
+      <c r="Q4377" s="100"/>
+      <c r="R4377" s="100"/>
+      <c r="S4377" s="100"/>
+      <c r="T4377" s="100"/>
+      <c r="U4377" s="100"/>
+      <c r="V4377" s="100"/>
+      <c r="W4377" s="100"/>
+      <c r="X4377" s="100"/>
+      <c r="Y4377" s="100"/>
+      <c r="Z4377" s="100"/>
+      <c r="AA4377" s="100"/>
+      <c r="AB4377" s="100"/>
+      <c r="AC4377" s="100"/>
+      <c r="AD4377" s="100"/>
+      <c r="AE4377" s="100"/>
+      <c r="AF4377" s="100"/>
     </row>
     <row r="4378" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4379" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -53056,37 +53046,37 @@
     <row r="4500" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4501" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4502" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B4502" s="101"/>
-      <c r="C4502" s="101"/>
-      <c r="D4502" s="101"/>
-      <c r="E4502" s="101"/>
-      <c r="F4502" s="101"/>
-      <c r="G4502" s="101"/>
-      <c r="H4502" s="101"/>
-      <c r="I4502" s="101"/>
-      <c r="J4502" s="101"/>
-      <c r="K4502" s="101"/>
-      <c r="L4502" s="101"/>
-      <c r="M4502" s="101"/>
-      <c r="N4502" s="101"/>
-      <c r="O4502" s="101"/>
-      <c r="P4502" s="101"/>
-      <c r="Q4502" s="101"/>
-      <c r="R4502" s="101"/>
-      <c r="S4502" s="101"/>
-      <c r="T4502" s="101"/>
-      <c r="U4502" s="101"/>
-      <c r="V4502" s="101"/>
-      <c r="W4502" s="101"/>
-      <c r="X4502" s="101"/>
-      <c r="Y4502" s="101"/>
-      <c r="Z4502" s="101"/>
-      <c r="AA4502" s="101"/>
-      <c r="AB4502" s="101"/>
-      <c r="AC4502" s="101"/>
-      <c r="AD4502" s="101"/>
-      <c r="AE4502" s="101"/>
-      <c r="AF4502" s="101"/>
+      <c r="B4502" s="100"/>
+      <c r="C4502" s="100"/>
+      <c r="D4502" s="100"/>
+      <c r="E4502" s="100"/>
+      <c r="F4502" s="100"/>
+      <c r="G4502" s="100"/>
+      <c r="H4502" s="100"/>
+      <c r="I4502" s="100"/>
+      <c r="J4502" s="100"/>
+      <c r="K4502" s="100"/>
+      <c r="L4502" s="100"/>
+      <c r="M4502" s="100"/>
+      <c r="N4502" s="100"/>
+      <c r="O4502" s="100"/>
+      <c r="P4502" s="100"/>
+      <c r="Q4502" s="100"/>
+      <c r="R4502" s="100"/>
+      <c r="S4502" s="100"/>
+      <c r="T4502" s="100"/>
+      <c r="U4502" s="100"/>
+      <c r="V4502" s="100"/>
+      <c r="W4502" s="100"/>
+      <c r="X4502" s="100"/>
+      <c r="Y4502" s="100"/>
+      <c r="Z4502" s="100"/>
+      <c r="AA4502" s="100"/>
+      <c r="AB4502" s="100"/>
+      <c r="AC4502" s="100"/>
+      <c r="AD4502" s="100"/>
+      <c r="AE4502" s="100"/>
+      <c r="AF4502" s="100"/>
     </row>
     <row r="4503" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
     <row r="4504" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -53098,11 +53088,18 @@
     <row r="4510" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.75"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B4002:AF4002"/>
-    <mergeCell ref="B4127:AF4127"/>
-    <mergeCell ref="B4252:AF4252"/>
-    <mergeCell ref="B4377:AF4377"/>
-    <mergeCell ref="B4502:AF4502"/>
+    <mergeCell ref="B1194:AF1194"/>
+    <mergeCell ref="B117:AF117"/>
+    <mergeCell ref="B259:AF259"/>
+    <mergeCell ref="B275:AG275"/>
+    <mergeCell ref="B339:AF339"/>
+    <mergeCell ref="B452:AF452"/>
+    <mergeCell ref="B565:AF565"/>
+    <mergeCell ref="B663:AF663"/>
+    <mergeCell ref="B735:AF735"/>
+    <mergeCell ref="B911:AF911"/>
+    <mergeCell ref="B994:AF994"/>
+    <mergeCell ref="B1096:AF1096"/>
     <mergeCell ref="B3877:AF3877"/>
     <mergeCell ref="B1294:AF1294"/>
     <mergeCell ref="B1590:AF1590"/>
@@ -53115,18 +53112,11 @@
     <mergeCell ref="B3502:AF3502"/>
     <mergeCell ref="B3627:AF3627"/>
     <mergeCell ref="B3752:AF3752"/>
-    <mergeCell ref="B1194:AF1194"/>
-    <mergeCell ref="B117:AF117"/>
-    <mergeCell ref="B259:AF259"/>
-    <mergeCell ref="B275:AG275"/>
-    <mergeCell ref="B339:AF339"/>
-    <mergeCell ref="B452:AF452"/>
-    <mergeCell ref="B565:AF565"/>
-    <mergeCell ref="B663:AF663"/>
-    <mergeCell ref="B735:AF735"/>
-    <mergeCell ref="B911:AF911"/>
-    <mergeCell ref="B994:AF994"/>
-    <mergeCell ref="B1096:AF1096"/>
+    <mergeCell ref="B4002:AF4002"/>
+    <mergeCell ref="B4127:AF4127"/>
+    <mergeCell ref="B4252:AF4252"/>
+    <mergeCell ref="B4377:AF4377"/>
+    <mergeCell ref="B4502:AF4502"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53160,62 +53150,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112"/>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="112"/>
-      <c r="BA1" s="112"/>
-      <c r="BB1" s="112"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="108"/>
+      <c r="BA1" s="108"/>
+      <c r="BB1" s="108"/>
     </row>
     <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="38"/>
@@ -55238,189 +55228,189 @@
       <c r="BB20" s="59"/>
     </row>
     <row r="21" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
     </row>
     <row r="22" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="114"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="114"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
     </row>
     <row r="23" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
     </row>
     <row r="24" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
     </row>
     <row r="25" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
     </row>
     <row r="26" spans="1:54" s="63" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="108"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
     </row>
     <row r="27" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
     </row>
     <row r="28" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
     </row>
     <row r="29" spans="1:54" s="63" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
     </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.75"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.75"/>
@@ -55453,17 +55443,17 @@
     <row r="61" customFormat="1" x14ac:dyDescent="0.75"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="AC1:BB1"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A29:Q29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
